--- a/mosip_master/xlsx/zone_user_h.xlsx
+++ b/mosip_master/xlsx/zone_user_h.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahesh.Binayak\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\Elhadj-unir-masterdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EF1852-D84B-4180-83B4-1EDB24753668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAE86BC9-39D0-4733-919E-07815E694388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="-90" windowWidth="19380" windowHeight="10260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>lang_code</t>
   </si>
@@ -39,55 +34,334 @@
     <t>is_active</t>
   </si>
   <si>
-    <t>eff_dtimes</t>
+    <t>cr_by</t>
   </si>
   <si>
-    <t>eng</t>
-  </si>
-  <si>
-    <t>MOR</t>
-  </si>
-  <si>
-    <t>globaladmin</t>
-  </si>
-  <si>
-    <t>now()</t>
-  </si>
-  <si>
-    <t>service-account-mosip-resident-client</t>
+    <t>eff_dtimes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <charset val="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -96,36 +370,203 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -141,7 +582,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -436,73 +877,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/mosip_master/xlsx/zone_user_h.xlsx
+++ b/mosip_master/xlsx/zone_user_h.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\Elhadj-unir-masterdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-guinea\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAE86BC9-39D0-4733-919E-07815E694388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F9E3D0-ADA9-4296-9B96-2BC7B4B59E61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="-90" windowWidth="19380" windowHeight="10260"/>
+    <workbookView xWindow="9516" yWindow="-96" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>lang_code</t>
   </si>
@@ -34,17 +34,29 @@
     <t>is_active</t>
   </si>
   <si>
-    <t>cr_by</t>
+    <t>eff_dtimes</t>
   </si>
   <si>
-    <t>eff_dtimes</t>
+    <t>fra</t>
+  </si>
+  <si>
+    <t>GN</t>
+  </si>
+  <si>
+    <t>globaladmin</t>
+  </si>
+  <si>
+    <t>Service-account-mosip-resident-client</t>
+  </si>
+  <si>
+    <t>now()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,8 +191,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,8 +385,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -473,6 +504,36 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,52 +582,64 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -582,7 +655,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -877,14 +950,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -900,8 +975,39 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/mosip_master/xlsx/zone_user_h.xlsx
+++ b/mosip_master/xlsx/zone_user_h.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-guinea\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP\Mosip Codebase\GUINEA_Pilot\GUINEA_Pilot_Mosip-Data_WuriGuinea-1.2.0.1-B1\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F9E3D0-ADA9-4296-9B96-2BC7B4B59E61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8431472-FBAA-44AC-AC6A-E492AEF72310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9516" yWindow="-96" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="29">
   <si>
     <t>lang_code</t>
   </si>
@@ -49,14 +49,71 @@
     <t>Service-account-mosip-resident-client</t>
   </si>
   <si>
-    <t>now()</t>
+    <t>cr_by</t>
+  </si>
+  <si>
+    <t>cr_dtimes</t>
+  </si>
+  <si>
+    <t>upd_by</t>
+  </si>
+  <si>
+    <t>upd_dtimes</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>del_dtimes</t>
+  </si>
+  <si>
+    <t>superadmin</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>chithara27</t>
+  </si>
+  <si>
+    <t>imouctar</t>
+  </si>
+  <si>
+    <t>teli</t>
+  </si>
+  <si>
+    <t>ekeita</t>
+  </si>
+  <si>
+    <t>ferdinand</t>
+  </si>
+  <si>
+    <t>condeis</t>
+  </si>
+  <si>
+    <t>chithara</t>
+  </si>
+  <si>
+    <t>avanish</t>
+  </si>
+  <si>
+    <t>avanish123</t>
+  </si>
+  <si>
+    <t>avanish5</t>
+  </si>
+  <si>
+    <t>ganesh</t>
+  </si>
+  <si>
+    <t>nambi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,21 +248,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,14 +429,8 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -507,36 +545,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -582,20 +590,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -951,63 +948,2112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="b">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="b">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45079.578921342596</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1">
+        <v>45079.57894590278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="b">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="b">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="F3" s="1">
+        <v>45079.578921342596</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1">
+        <v>45079.57894590278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1">
+        <v>45079.63414829861</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="1">
+        <v>45079.634148611112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1">
+        <v>45079.63414829861</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1">
+        <v>45079.634254745368</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="1">
+        <v>45079.634254745368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1103</v>
+      </c>
+      <c r="F6" s="1">
+        <v>45082.218435162038</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="1">
+        <v>45082.218437453703</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1103</v>
+      </c>
+      <c r="F7" s="1">
+        <v>45082.218435162038</v>
+      </c>
+      <c r="G7">
+        <v>1103</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>45082.218623831017</v>
+      </c>
+      <c r="K7" s="1">
+        <v>45082.218623831017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1103</v>
+      </c>
+      <c r="F8" s="1">
+        <v>45082.218754317131</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="1">
+        <v>45082.218754409725</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1103</v>
+      </c>
+      <c r="F9" s="1">
+        <v>45082.218754317131</v>
+      </c>
+      <c r="G9">
+        <v>1103</v>
+      </c>
+      <c r="H9" s="1">
+        <v>45082.219311319444</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="1">
+        <v>45082.219311354165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1103</v>
+      </c>
+      <c r="F10" s="1">
+        <v>45082.218754317131</v>
+      </c>
+      <c r="G10">
+        <v>1103</v>
+      </c>
+      <c r="H10" s="1">
+        <v>45082.219414386571</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="1">
+        <v>45082.219414386571</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1">
+        <v>45093.476553206019</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="1">
+        <v>45093.47655446759</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1">
+        <v>45093.476553206019</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="1">
+        <v>45093.476803252313</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="1">
+        <v>45093.476803252313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="1">
+        <v>45093.543232997683</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="1">
+        <v>45093.54323304398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="1">
+        <v>45093.543232997683</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="1">
+        <v>45093.543855763892</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="1">
+        <v>45093.543855763892</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1">
+        <v>45096.530541944441</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="1">
+        <v>45096.530542997687</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1">
+        <v>45096.53061480324</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="1">
+        <v>45096.530614849537</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1">
+        <v>45096.530541944441</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="1">
+        <v>45096.531055624997</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="1">
+        <v>45096.531055624997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="1">
+        <v>45096.53061480324</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="1">
+        <v>45096.531111562501</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="1">
+        <v>45096.531111562501</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="1">
+        <v>45096.532476493056</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="1">
+        <v>45096.532476550929</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="1">
+        <v>45096.532476493056</v>
+      </c>
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="1">
+        <v>45096.532978784722</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="1">
+        <v>45096.532978784722</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>2203</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="1">
+        <v>45125.256725023151</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="1">
+        <v>45125.256725671294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>2203</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="1">
+        <v>45125.256725023151</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="1">
+        <v>45125.256807662037</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="1">
+        <v>45125.256807696758</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>2203</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="1">
+        <v>45125.256725023151</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="1">
+        <v>45125.256807662037</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>45125.256878321758</v>
+      </c>
+      <c r="K23" s="1">
+        <v>45125.256878321758</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="1">
+        <v>45125.257935358793</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="1">
+        <v>45125.257935393522</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="1">
+        <v>45125.257935358793</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="1">
+        <v>45125.258092060183</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="1">
+        <v>45125.258092060183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="1">
+        <v>45132.27354209491</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="1">
+        <v>45132.273542800925</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="1">
+        <v>45132.27354209491</v>
+      </c>
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="1">
+        <v>45132.275080185187</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="1">
+        <v>45132.275080243053</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="1">
+        <v>45132.27354209491</v>
+      </c>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="1">
+        <v>45132.275416759257</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="1">
+        <v>45132.275416759257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="1">
+        <v>45134.366597581022</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="1">
+        <v>45134.366598807872</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="1">
+        <v>45134.366597581022</v>
+      </c>
+      <c r="G30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="1">
+        <v>45134.367102673612</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="1">
+        <v>45134.367103356482</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="1">
+        <v>45134.366597581022</v>
+      </c>
+      <c r="G31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="1">
+        <v>45134.367175115738</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" s="1">
+        <v>45134.367175115738</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="1">
+        <v>45134.386296122684</v>
+      </c>
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="1">
+        <v>45134.386296157405</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="1">
+        <v>45134.386296122684</v>
+      </c>
+      <c r="G33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="1">
+        <v>45134.386378090276</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="1">
+        <v>45134.386378090276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="1">
+        <v>45134.386296122684</v>
+      </c>
+      <c r="G34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="1">
+        <v>45134.422046215281</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="1">
+        <v>45134.422046250002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="1">
+        <v>45134.386296122684</v>
+      </c>
+      <c r="G35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="1">
+        <v>45134.429045081015</v>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" s="1">
+        <v>45134.429045104167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="1">
+        <v>45134.386296122684</v>
+      </c>
+      <c r="G36" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="1">
+        <v>45134.432936944446</v>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" s="1">
+        <v>45134.432936967591</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="1">
+        <v>45134.366597581022</v>
+      </c>
+      <c r="G37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="1">
+        <v>45134.437427141202</v>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="1">
+        <v>45134.437427164354</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="1">
+        <v>45134.386296122684</v>
+      </c>
+      <c r="G38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="1">
+        <v>45134.437535625002</v>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="1">
+        <v>45134.437535659723</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="1">
+        <v>45132.27354209491</v>
+      </c>
+      <c r="G39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="1">
+        <v>45134.451141724538</v>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="1">
+        <v>45134.451141747682</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>110036</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="1">
+        <v>45154.50964271991</v>
+      </c>
+      <c r="G40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" s="1">
+        <v>45154.509642858793</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <v>110036</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="1">
+        <v>45154.50964271991</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" s="1">
+        <v>45154.509767465279</v>
+      </c>
+      <c r="K41" s="1">
+        <v>45154.509767465279</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <v>110036</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="1">
+        <v>45154.509861180559</v>
+      </c>
+      <c r="G42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" s="1">
+        <v>45154.509861238424</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>110036</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="1">
+        <v>45154.509861180559</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="1">
+        <v>45154.509913055554</v>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" s="1">
+        <v>45154.509913055554</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>110027</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="1">
+        <v>45154.548599768517</v>
+      </c>
+      <c r="G44" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" s="1">
+        <v>45154.548599814814</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45">
+        <v>110027</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="1">
+        <v>45154.548599768517</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" s="1">
+        <v>45154.548650879631</v>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" s="1">
+        <v>45154.548650879631</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46">
+        <v>110022</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="1">
+        <v>45155.185573240742</v>
+      </c>
+      <c r="G46" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" s="1">
+        <v>45155.185573287039</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>110022</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="1">
+        <v>45155.185573240742</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="1">
+        <v>45155.18563083333</v>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" s="1">
+        <v>45155.18563083333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48">
+        <v>110003</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="1">
+        <v>45163.406442326392</v>
+      </c>
+      <c r="G48" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="s">
+        <v>16</v>
+      </c>
+      <c r="K48" s="1">
+        <v>45163.406442384257</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49">
+        <v>110003</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="1">
+        <v>45163.406442326392</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="1">
+        <v>45163.40649439815</v>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" s="1">
+        <v>45163.40649439815</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50">
+        <v>110022</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="1">
+        <v>45155.185573240742</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="1">
+        <v>45155.185630810185</v>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" s="1">
+        <v>45163.475658101852</v>
+      </c>
+      <c r="K50" s="1">
+        <v>45163.475658101852</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51">
+        <v>110036</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="1">
+        <v>45154.509861180559</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="1">
+        <v>45154.50991296296</v>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" s="1">
+        <v>45163.475968171297</v>
+      </c>
+      <c r="K51" s="1">
+        <v>45163.475968171297</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52">
+        <v>110027</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" s="1">
+        <v>45154.548599768517</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="1">
+        <v>45154.54865084491</v>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" s="1">
+        <v>45163.476037962966</v>
+      </c>
+      <c r="K52" s="1">
+        <v>45163.476037962966</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <v>100011</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="1">
+        <v>45163.477550798612</v>
+      </c>
+      <c r="G53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="s">
+        <v>16</v>
+      </c>
+      <c r="K53" s="1">
+        <v>45163.477550844909</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54">
+        <v>100011</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" s="1">
+        <v>45163.477550798612</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="1">
+        <v>45163.477606504632</v>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54" s="1">
+        <v>45163.477606504632</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="1">
+        <v>45169.441064108796</v>
+      </c>
+      <c r="G55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="s">
+        <v>16</v>
+      </c>
+      <c r="K55" s="1">
+        <v>45169.441064814811</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="1">
+        <v>45169.441064108796</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="1">
+        <v>45169.441151099534</v>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="s">
+        <v>16</v>
+      </c>
+      <c r="K56" s="1">
+        <v>45169.441151099534</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57">
+        <v>110010</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="1">
+        <v>45176.256805497687</v>
+      </c>
+      <c r="G57" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="s">
+        <v>16</v>
+      </c>
+      <c r="K57" s="1">
+        <v>45176.256805555553</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58">
+        <v>110010</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" t="b">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="1">
+        <v>45176.256805497687</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" s="1">
+        <v>45176.256865833333</v>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58" s="1">
+        <v>45176.256865833333</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="1">
+        <v>45191.306310520835</v>
+      </c>
+      <c r="G59" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" t="s">
+        <v>16</v>
+      </c>
+      <c r="K59" s="1">
+        <v>45191.306311354165</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="b">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" s="1">
+        <v>45191.306310520835</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" s="1">
+        <v>45191.306401886577</v>
+      </c>
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" t="s">
+        <v>16</v>
+      </c>
+      <c r="K60" s="1">
+        <v>45191.306401886577</v>
       </c>
     </row>
   </sheetData>
